--- a/calc/66-25-FerizajFurraKosova-ekzekutimi.xlsx
+++ b/calc/66-25-FerizajFurraKosova-ekzekutimi.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferizaj\Ferizaj\Ingjinierike\66-25-FerizajFurraKosova\calc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FB9AF7-15A5-4355-890B-FAFC18BAF207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="8220" windowHeight="1185" activeTab="6"/>
+    <workbookView xWindow="660" yWindow="330" windowWidth="28140" windowHeight="15870" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,23 +24,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$657</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="171">
   <si>
     <t>Nr</t>
   </si>
@@ -444,9 +444,6 @@
     <t>B2</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
     <t>Kontrapllakë</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
   </si>
   <si>
     <t>Shenimi I objektit, B1</t>
-  </si>
-  <si>
-    <t>Shenimi I objektit, B2</t>
   </si>
   <si>
     <t>Situacioni 1</t>
@@ -542,18 +536,45 @@
   <si>
     <t>Manuali për leje ndërtimore</t>
   </si>
+  <si>
+    <t>Qmimi/0.50m²</t>
+  </si>
+  <si>
+    <t>Shenimi I objektit,</t>
+  </si>
+  <si>
+    <t>Manuali per urbanizem</t>
+  </si>
+  <si>
+    <t>b1, piketimi shtylave</t>
+  </si>
+  <si>
+    <t>Kontrapllakë, shtyllat</t>
+  </si>
+  <si>
+    <t>perdhese , shtyllat</t>
+  </si>
+  <si>
+    <t>Paguar</t>
+  </si>
+  <si>
+    <t>Pa paguar</t>
+  </si>
+  <si>
+    <t>Llogaritja e sasive</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1007]"/>
-    <numFmt numFmtId="170" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,8 +680,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,8 +714,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1092,15 +1133,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1109,7 +1174,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1148,10 +1213,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1159,7 +1224,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1177,31 +1242,20 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1209,9 +1263,12 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1226,7 +1283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1240,6 +1297,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1301,8 +1361,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1313,39 +1388,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,7 +1470,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1526,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1587,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1659,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1734,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1800,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +1856,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1917,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1978,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +2053,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2119,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2175,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2236,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2297,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2372,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2438,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2494,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2555,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2616,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,7 +2691,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2671,7 +2757,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2813,7 @@
         <xdr:cNvPr id="24" name="TextBox 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2874,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2935,7 @@
         <xdr:cNvPr id="26" name="TextBox 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2924,7 +3010,7 @@
         <xdr:cNvPr id="27" name="TextBox 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,7 +3076,7 @@
         <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,7 +3132,7 @@
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3193,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3254,7 @@
         <xdr:cNvPr id="31" name="TextBox 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3329,7 @@
         <xdr:cNvPr id="32" name="TextBox 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3395,7 @@
         <xdr:cNvPr id="33" name="Picture 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3365,7 +3451,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3512,7 @@
         <xdr:cNvPr id="35" name="TextBox 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3573,7 @@
         <xdr:cNvPr id="36" name="TextBox 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3562,7 +3648,7 @@
         <xdr:cNvPr id="37" name="TextBox 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3628,7 +3714,7 @@
         <xdr:cNvPr id="38" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3684,7 +3770,7 @@
         <xdr:cNvPr id="39" name="TextBox 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3831,7 @@
         <xdr:cNvPr id="40" name="TextBox 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +3892,7 @@
         <xdr:cNvPr id="41" name="TextBox 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3881,7 +3967,7 @@
         <xdr:cNvPr id="42" name="TextBox 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3947,7 +4033,7 @@
         <xdr:cNvPr id="43" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4003,7 +4089,7 @@
         <xdr:cNvPr id="44" name="TextBox 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4064,7 +4150,7 @@
         <xdr:cNvPr id="45" name="TextBox 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4125,7 +4211,7 @@
         <xdr:cNvPr id="46" name="TextBox 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4200,7 +4286,7 @@
         <xdr:cNvPr id="47" name="TextBox 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,14 +4626,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V657"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A576" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
@@ -4567,112 +4653,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -5720,24 +5806,24 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="85" t="s">
+      <c r="B62" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
     </row>
     <row r="69" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I69" s="3"/>
@@ -5749,142 +5835,142 @@
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="68" t="s">
+      <c r="E70" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="69"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="71" t="s">
+      <c r="F70" s="64"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I70" s="72"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="76"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="70"/>
+      <c r="K70" s="71"/>
     </row>
     <row r="71" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="79" t="s">
+      <c r="A71" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="82">
+      <c r="B71" s="75"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="77">
         <v>140</v>
       </c>
-      <c r="F71" s="83"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="74"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="78"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="73"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
     </row>
     <row r="73" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="58" t="s">
+      <c r="A74" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="58"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C79" s="59"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="61"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="55"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C80" s="62"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="64"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="58"/>
     </row>
     <row r="81" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="65"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="67"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="61"/>
     </row>
     <row r="82" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I82" s="3"/>
@@ -6756,142 +6842,142 @@
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="68" t="s">
+      <c r="E143" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F143" s="69"/>
-      <c r="G143" s="70"/>
-      <c r="H143" s="71" t="s">
+      <c r="F143" s="64"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I143" s="72"/>
-      <c r="J143" s="75"/>
-      <c r="K143" s="76"/>
+      <c r="I143" s="67"/>
+      <c r="J143" s="70"/>
+      <c r="K143" s="71"/>
     </row>
     <row r="144" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="79" t="s">
+      <c r="A144" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B144" s="80"/>
-      <c r="C144" s="80"/>
-      <c r="D144" s="81"/>
-      <c r="E144" s="82">
+      <c r="B144" s="75"/>
+      <c r="C144" s="75"/>
+      <c r="D144" s="76"/>
+      <c r="E144" s="77">
         <v>140</v>
       </c>
-      <c r="F144" s="83"/>
-      <c r="G144" s="84"/>
-      <c r="H144" s="73"/>
-      <c r="I144" s="74"/>
-      <c r="J144" s="77"/>
-      <c r="K144" s="78"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="68"/>
+      <c r="I144" s="69"/>
+      <c r="J144" s="72"/>
+      <c r="K144" s="73"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="57"/>
-      <c r="B145" s="57"/>
-      <c r="C145" s="57"/>
-      <c r="D145" s="57"/>
-      <c r="E145" s="57"/>
-      <c r="F145" s="57"/>
-      <c r="G145" s="57"/>
-      <c r="H145" s="57"/>
-      <c r="I145" s="57"/>
-      <c r="J145" s="57"/>
-      <c r="K145" s="57"/>
+      <c r="A145" s="62"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="62"/>
+      <c r="D145" s="62"/>
+      <c r="E145" s="62"/>
+      <c r="F145" s="62"/>
+      <c r="G145" s="62"/>
+      <c r="H145" s="62"/>
+      <c r="I145" s="62"/>
+      <c r="J145" s="62"/>
+      <c r="K145" s="62"/>
     </row>
     <row r="146" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="57"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="57"/>
-      <c r="E146" s="57"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="57"/>
-      <c r="I146" s="57"/>
-      <c r="J146" s="57"/>
-      <c r="K146" s="57"/>
+      <c r="A146" s="62"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="62"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="62"/>
+      <c r="I146" s="62"/>
+      <c r="J146" s="62"/>
+      <c r="K146" s="62"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="58" t="s">
+      <c r="A147" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B147" s="58"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="58"/>
-      <c r="F147" s="58"/>
-      <c r="G147" s="58"/>
-      <c r="H147" s="58"/>
-      <c r="I147" s="58"/>
-      <c r="J147" s="58"/>
-      <c r="K147" s="58"/>
+      <c r="B147" s="52"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="52"/>
+      <c r="F147" s="52"/>
+      <c r="G147" s="52"/>
+      <c r="H147" s="52"/>
+      <c r="I147" s="52"/>
+      <c r="J147" s="52"/>
+      <c r="K147" s="52"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="58"/>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="58"/>
-      <c r="F148" s="58"/>
-      <c r="G148" s="58"/>
-      <c r="H148" s="58"/>
-      <c r="I148" s="58"/>
-      <c r="J148" s="58"/>
-      <c r="K148" s="58"/>
+      <c r="A148" s="52"/>
+      <c r="B148" s="52"/>
+      <c r="C148" s="52"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="52"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="52"/>
+      <c r="I148" s="52"/>
+      <c r="J148" s="52"/>
+      <c r="K148" s="52"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="58"/>
-      <c r="B149" s="58"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="58"/>
-      <c r="E149" s="58"/>
-      <c r="F149" s="58"/>
-      <c r="G149" s="58"/>
-      <c r="H149" s="58"/>
-      <c r="I149" s="58"/>
-      <c r="J149" s="58"/>
-      <c r="K149" s="58"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="52"/>
+      <c r="F149" s="52"/>
+      <c r="G149" s="52"/>
+      <c r="H149" s="52"/>
+      <c r="I149" s="52"/>
+      <c r="J149" s="52"/>
+      <c r="K149" s="52"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="58"/>
-      <c r="B150" s="58"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="58"/>
-      <c r="F150" s="58"/>
-      <c r="G150" s="58"/>
-      <c r="H150" s="58"/>
-      <c r="I150" s="58"/>
-      <c r="J150" s="58"/>
-      <c r="K150" s="58"/>
+      <c r="A150" s="52"/>
+      <c r="B150" s="52"/>
+      <c r="C150" s="52"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="52"/>
+      <c r="F150" s="52"/>
+      <c r="G150" s="52"/>
+      <c r="H150" s="52"/>
+      <c r="I150" s="52"/>
+      <c r="J150" s="52"/>
+      <c r="K150" s="52"/>
     </row>
     <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C152" s="59"/>
-      <c r="D152" s="60"/>
-      <c r="E152" s="60"/>
-      <c r="F152" s="60"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="60"/>
-      <c r="I152" s="61"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="54"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="54"/>
+      <c r="H152" s="54"/>
+      <c r="I152" s="55"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C153" s="62"/>
-      <c r="D153" s="63"/>
-      <c r="E153" s="63"/>
-      <c r="F153" s="63"/>
-      <c r="G153" s="63"/>
-      <c r="H153" s="63"/>
-      <c r="I153" s="64"/>
+      <c r="C153" s="56"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="57"/>
+      <c r="I153" s="58"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="65"/>
-      <c r="D154" s="66"/>
-      <c r="E154" s="66"/>
-      <c r="F154" s="66"/>
-      <c r="G154" s="66"/>
-      <c r="H154" s="66"/>
-      <c r="I154" s="67"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="60"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="60"/>
+      <c r="I154" s="61"/>
     </row>
     <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="156" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -8098,142 +8184,142 @@
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
-      <c r="E215" s="68" t="s">
+      <c r="E215" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F215" s="69"/>
-      <c r="G215" s="70"/>
-      <c r="H215" s="71" t="s">
+      <c r="F215" s="64"/>
+      <c r="G215" s="65"/>
+      <c r="H215" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I215" s="72"/>
-      <c r="J215" s="75"/>
-      <c r="K215" s="76"/>
+      <c r="I215" s="67"/>
+      <c r="J215" s="70"/>
+      <c r="K215" s="71"/>
     </row>
     <row r="216" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="79" t="s">
+      <c r="A216" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B216" s="80"/>
-      <c r="C216" s="80"/>
-      <c r="D216" s="81"/>
-      <c r="E216" s="82">
+      <c r="B216" s="75"/>
+      <c r="C216" s="75"/>
+      <c r="D216" s="76"/>
+      <c r="E216" s="77">
         <v>140</v>
       </c>
-      <c r="F216" s="83"/>
-      <c r="G216" s="84"/>
-      <c r="H216" s="73"/>
-      <c r="I216" s="74"/>
-      <c r="J216" s="77"/>
-      <c r="K216" s="78"/>
+      <c r="F216" s="78"/>
+      <c r="G216" s="79"/>
+      <c r="H216" s="68"/>
+      <c r="I216" s="69"/>
+      <c r="J216" s="72"/>
+      <c r="K216" s="73"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="57"/>
-      <c r="B217" s="57"/>
-      <c r="C217" s="57"/>
-      <c r="D217" s="57"/>
-      <c r="E217" s="57"/>
-      <c r="F217" s="57"/>
-      <c r="G217" s="57"/>
-      <c r="H217" s="57"/>
-      <c r="I217" s="57"/>
-      <c r="J217" s="57"/>
-      <c r="K217" s="57"/>
+      <c r="A217" s="62"/>
+      <c r="B217" s="62"/>
+      <c r="C217" s="62"/>
+      <c r="D217" s="62"/>
+      <c r="E217" s="62"/>
+      <c r="F217" s="62"/>
+      <c r="G217" s="62"/>
+      <c r="H217" s="62"/>
+      <c r="I217" s="62"/>
+      <c r="J217" s="62"/>
+      <c r="K217" s="62"/>
     </row>
     <row r="218" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="57"/>
-      <c r="B218" s="57"/>
-      <c r="C218" s="57"/>
-      <c r="D218" s="57"/>
-      <c r="E218" s="57"/>
-      <c r="F218" s="57"/>
-      <c r="G218" s="57"/>
-      <c r="H218" s="57"/>
-      <c r="I218" s="57"/>
-      <c r="J218" s="57"/>
-      <c r="K218" s="57"/>
+      <c r="A218" s="62"/>
+      <c r="B218" s="62"/>
+      <c r="C218" s="62"/>
+      <c r="D218" s="62"/>
+      <c r="E218" s="62"/>
+      <c r="F218" s="62"/>
+      <c r="G218" s="62"/>
+      <c r="H218" s="62"/>
+      <c r="I218" s="62"/>
+      <c r="J218" s="62"/>
+      <c r="K218" s="62"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="58" t="s">
+      <c r="A219" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B219" s="58"/>
-      <c r="C219" s="58"/>
-      <c r="D219" s="58"/>
-      <c r="E219" s="58"/>
-      <c r="F219" s="58"/>
-      <c r="G219" s="58"/>
-      <c r="H219" s="58"/>
-      <c r="I219" s="58"/>
-      <c r="J219" s="58"/>
-      <c r="K219" s="58"/>
+      <c r="B219" s="52"/>
+      <c r="C219" s="52"/>
+      <c r="D219" s="52"/>
+      <c r="E219" s="52"/>
+      <c r="F219" s="52"/>
+      <c r="G219" s="52"/>
+      <c r="H219" s="52"/>
+      <c r="I219" s="52"/>
+      <c r="J219" s="52"/>
+      <c r="K219" s="52"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="58"/>
-      <c r="B220" s="58"/>
-      <c r="C220" s="58"/>
-      <c r="D220" s="58"/>
-      <c r="E220" s="58"/>
-      <c r="F220" s="58"/>
-      <c r="G220" s="58"/>
-      <c r="H220" s="58"/>
-      <c r="I220" s="58"/>
-      <c r="J220" s="58"/>
-      <c r="K220" s="58"/>
+      <c r="A220" s="52"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="52"/>
+      <c r="D220" s="52"/>
+      <c r="E220" s="52"/>
+      <c r="F220" s="52"/>
+      <c r="G220" s="52"/>
+      <c r="H220" s="52"/>
+      <c r="I220" s="52"/>
+      <c r="J220" s="52"/>
+      <c r="K220" s="52"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="58"/>
-      <c r="B221" s="58"/>
-      <c r="C221" s="58"/>
-      <c r="D221" s="58"/>
-      <c r="E221" s="58"/>
-      <c r="F221" s="58"/>
-      <c r="G221" s="58"/>
-      <c r="H221" s="58"/>
-      <c r="I221" s="58"/>
-      <c r="J221" s="58"/>
-      <c r="K221" s="58"/>
+      <c r="A221" s="52"/>
+      <c r="B221" s="52"/>
+      <c r="C221" s="52"/>
+      <c r="D221" s="52"/>
+      <c r="E221" s="52"/>
+      <c r="F221" s="52"/>
+      <c r="G221" s="52"/>
+      <c r="H221" s="52"/>
+      <c r="I221" s="52"/>
+      <c r="J221" s="52"/>
+      <c r="K221" s="52"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="58"/>
-      <c r="B222" s="58"/>
-      <c r="C222" s="58"/>
-      <c r="D222" s="58"/>
-      <c r="E222" s="58"/>
-      <c r="F222" s="58"/>
-      <c r="G222" s="58"/>
-      <c r="H222" s="58"/>
-      <c r="I222" s="58"/>
-      <c r="J222" s="58"/>
-      <c r="K222" s="58"/>
+      <c r="A222" s="52"/>
+      <c r="B222" s="52"/>
+      <c r="C222" s="52"/>
+      <c r="D222" s="52"/>
+      <c r="E222" s="52"/>
+      <c r="F222" s="52"/>
+      <c r="G222" s="52"/>
+      <c r="H222" s="52"/>
+      <c r="I222" s="52"/>
+      <c r="J222" s="52"/>
+      <c r="K222" s="52"/>
     </row>
     <row r="223" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C224" s="59"/>
-      <c r="D224" s="60"/>
-      <c r="E224" s="60"/>
-      <c r="F224" s="60"/>
-      <c r="G224" s="60"/>
-      <c r="H224" s="60"/>
-      <c r="I224" s="61"/>
+      <c r="C224" s="53"/>
+      <c r="D224" s="54"/>
+      <c r="E224" s="54"/>
+      <c r="F224" s="54"/>
+      <c r="G224" s="54"/>
+      <c r="H224" s="54"/>
+      <c r="I224" s="55"/>
     </row>
     <row r="225" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C225" s="62"/>
-      <c r="D225" s="63"/>
-      <c r="E225" s="63"/>
-      <c r="F225" s="63"/>
-      <c r="G225" s="63"/>
-      <c r="H225" s="63"/>
-      <c r="I225" s="64"/>
+      <c r="C225" s="56"/>
+      <c r="D225" s="57"/>
+      <c r="E225" s="57"/>
+      <c r="F225" s="57"/>
+      <c r="G225" s="57"/>
+      <c r="H225" s="57"/>
+      <c r="I225" s="58"/>
     </row>
     <row r="226" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C226" s="65"/>
-      <c r="D226" s="66"/>
-      <c r="E226" s="66"/>
-      <c r="F226" s="66"/>
-      <c r="G226" s="66"/>
-      <c r="H226" s="66"/>
-      <c r="I226" s="67"/>
+      <c r="C226" s="59"/>
+      <c r="D226" s="60"/>
+      <c r="E226" s="60"/>
+      <c r="F226" s="60"/>
+      <c r="G226" s="60"/>
+      <c r="H226" s="60"/>
+      <c r="I226" s="61"/>
     </row>
     <row r="227" spans="3:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I227" s="3"/>
@@ -9373,142 +9459,142 @@
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
-      <c r="E289" s="68" t="s">
+      <c r="E289" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F289" s="69"/>
-      <c r="G289" s="70"/>
-      <c r="H289" s="71" t="s">
+      <c r="F289" s="64"/>
+      <c r="G289" s="65"/>
+      <c r="H289" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I289" s="72"/>
-      <c r="J289" s="75"/>
-      <c r="K289" s="76"/>
+      <c r="I289" s="67"/>
+      <c r="J289" s="70"/>
+      <c r="K289" s="71"/>
     </row>
     <row r="290" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="79" t="s">
+      <c r="A290" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B290" s="80"/>
-      <c r="C290" s="80"/>
-      <c r="D290" s="81"/>
-      <c r="E290" s="82">
+      <c r="B290" s="75"/>
+      <c r="C290" s="75"/>
+      <c r="D290" s="76"/>
+      <c r="E290" s="77">
         <v>140</v>
       </c>
-      <c r="F290" s="83"/>
-      <c r="G290" s="84"/>
-      <c r="H290" s="73"/>
-      <c r="I290" s="74"/>
-      <c r="J290" s="77"/>
-      <c r="K290" s="78"/>
+      <c r="F290" s="78"/>
+      <c r="G290" s="79"/>
+      <c r="H290" s="68"/>
+      <c r="I290" s="69"/>
+      <c r="J290" s="72"/>
+      <c r="K290" s="73"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="57"/>
-      <c r="B291" s="57"/>
-      <c r="C291" s="57"/>
-      <c r="D291" s="57"/>
-      <c r="E291" s="57"/>
-      <c r="F291" s="57"/>
-      <c r="G291" s="57"/>
-      <c r="H291" s="57"/>
-      <c r="I291" s="57"/>
-      <c r="J291" s="57"/>
-      <c r="K291" s="57"/>
+      <c r="A291" s="62"/>
+      <c r="B291" s="62"/>
+      <c r="C291" s="62"/>
+      <c r="D291" s="62"/>
+      <c r="E291" s="62"/>
+      <c r="F291" s="62"/>
+      <c r="G291" s="62"/>
+      <c r="H291" s="62"/>
+      <c r="I291" s="62"/>
+      <c r="J291" s="62"/>
+      <c r="K291" s="62"/>
     </row>
     <row r="292" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="57"/>
-      <c r="B292" s="57"/>
-      <c r="C292" s="57"/>
-      <c r="D292" s="57"/>
-      <c r="E292" s="57"/>
-      <c r="F292" s="57"/>
-      <c r="G292" s="57"/>
-      <c r="H292" s="57"/>
-      <c r="I292" s="57"/>
-      <c r="J292" s="57"/>
-      <c r="K292" s="57"/>
+      <c r="A292" s="62"/>
+      <c r="B292" s="62"/>
+      <c r="C292" s="62"/>
+      <c r="D292" s="62"/>
+      <c r="E292" s="62"/>
+      <c r="F292" s="62"/>
+      <c r="G292" s="62"/>
+      <c r="H292" s="62"/>
+      <c r="I292" s="62"/>
+      <c r="J292" s="62"/>
+      <c r="K292" s="62"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="58" t="s">
+      <c r="A293" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B293" s="58"/>
-      <c r="C293" s="58"/>
-      <c r="D293" s="58"/>
-      <c r="E293" s="58"/>
-      <c r="F293" s="58"/>
-      <c r="G293" s="58"/>
-      <c r="H293" s="58"/>
-      <c r="I293" s="58"/>
-      <c r="J293" s="58"/>
-      <c r="K293" s="58"/>
+      <c r="B293" s="52"/>
+      <c r="C293" s="52"/>
+      <c r="D293" s="52"/>
+      <c r="E293" s="52"/>
+      <c r="F293" s="52"/>
+      <c r="G293" s="52"/>
+      <c r="H293" s="52"/>
+      <c r="I293" s="52"/>
+      <c r="J293" s="52"/>
+      <c r="K293" s="52"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" s="58"/>
-      <c r="B294" s="58"/>
-      <c r="C294" s="58"/>
-      <c r="D294" s="58"/>
-      <c r="E294" s="58"/>
-      <c r="F294" s="58"/>
-      <c r="G294" s="58"/>
-      <c r="H294" s="58"/>
-      <c r="I294" s="58"/>
-      <c r="J294" s="58"/>
-      <c r="K294" s="58"/>
+      <c r="A294" s="52"/>
+      <c r="B294" s="52"/>
+      <c r="C294" s="52"/>
+      <c r="D294" s="52"/>
+      <c r="E294" s="52"/>
+      <c r="F294" s="52"/>
+      <c r="G294" s="52"/>
+      <c r="H294" s="52"/>
+      <c r="I294" s="52"/>
+      <c r="J294" s="52"/>
+      <c r="K294" s="52"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="58"/>
-      <c r="B295" s="58"/>
-      <c r="C295" s="58"/>
-      <c r="D295" s="58"/>
-      <c r="E295" s="58"/>
-      <c r="F295" s="58"/>
-      <c r="G295" s="58"/>
-      <c r="H295" s="58"/>
-      <c r="I295" s="58"/>
-      <c r="J295" s="58"/>
-      <c r="K295" s="58"/>
+      <c r="A295" s="52"/>
+      <c r="B295" s="52"/>
+      <c r="C295" s="52"/>
+      <c r="D295" s="52"/>
+      <c r="E295" s="52"/>
+      <c r="F295" s="52"/>
+      <c r="G295" s="52"/>
+      <c r="H295" s="52"/>
+      <c r="I295" s="52"/>
+      <c r="J295" s="52"/>
+      <c r="K295" s="52"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="58"/>
-      <c r="B296" s="58"/>
-      <c r="C296" s="58"/>
-      <c r="D296" s="58"/>
-      <c r="E296" s="58"/>
-      <c r="F296" s="58"/>
-      <c r="G296" s="58"/>
-      <c r="H296" s="58"/>
-      <c r="I296" s="58"/>
-      <c r="J296" s="58"/>
-      <c r="K296" s="58"/>
+      <c r="A296" s="52"/>
+      <c r="B296" s="52"/>
+      <c r="C296" s="52"/>
+      <c r="D296" s="52"/>
+      <c r="E296" s="52"/>
+      <c r="F296" s="52"/>
+      <c r="G296" s="52"/>
+      <c r="H296" s="52"/>
+      <c r="I296" s="52"/>
+      <c r="J296" s="52"/>
+      <c r="K296" s="52"/>
     </row>
     <row r="297" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C298" s="59"/>
-      <c r="D298" s="60"/>
-      <c r="E298" s="60"/>
-      <c r="F298" s="60"/>
-      <c r="G298" s="60"/>
-      <c r="H298" s="60"/>
-      <c r="I298" s="61"/>
+      <c r="C298" s="53"/>
+      <c r="D298" s="54"/>
+      <c r="E298" s="54"/>
+      <c r="F298" s="54"/>
+      <c r="G298" s="54"/>
+      <c r="H298" s="54"/>
+      <c r="I298" s="55"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C299" s="62"/>
-      <c r="D299" s="63"/>
-      <c r="E299" s="63"/>
-      <c r="F299" s="63"/>
-      <c r="G299" s="63"/>
-      <c r="H299" s="63"/>
-      <c r="I299" s="64"/>
+      <c r="C299" s="56"/>
+      <c r="D299" s="57"/>
+      <c r="E299" s="57"/>
+      <c r="F299" s="57"/>
+      <c r="G299" s="57"/>
+      <c r="H299" s="57"/>
+      <c r="I299" s="58"/>
     </row>
     <row r="300" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C300" s="65"/>
-      <c r="D300" s="66"/>
-      <c r="E300" s="66"/>
-      <c r="F300" s="66"/>
-      <c r="G300" s="66"/>
-      <c r="H300" s="66"/>
-      <c r="I300" s="67"/>
+      <c r="C300" s="59"/>
+      <c r="D300" s="60"/>
+      <c r="E300" s="60"/>
+      <c r="F300" s="60"/>
+      <c r="G300" s="60"/>
+      <c r="H300" s="60"/>
+      <c r="I300" s="61"/>
     </row>
     <row r="301" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I301" s="3"/>
@@ -10254,145 +10340,145 @@
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
-      <c r="E360" s="68" t="s">
+      <c r="E360" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F360" s="69"/>
-      <c r="G360" s="70"/>
-      <c r="H360" s="71" t="s">
+      <c r="F360" s="64"/>
+      <c r="G360" s="65"/>
+      <c r="H360" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I360" s="72"/>
-      <c r="J360" s="75"/>
-      <c r="K360" s="76"/>
+      <c r="I360" s="67"/>
+      <c r="J360" s="70"/>
+      <c r="K360" s="71"/>
     </row>
     <row r="361" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="79" t="s">
+      <c r="A361" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B361" s="80"/>
-      <c r="C361" s="80"/>
-      <c r="D361" s="81"/>
-      <c r="E361" s="82">
+      <c r="B361" s="75"/>
+      <c r="C361" s="75"/>
+      <c r="D361" s="76"/>
+      <c r="E361" s="77">
         <v>140</v>
       </c>
-      <c r="F361" s="83"/>
-      <c r="G361" s="84"/>
-      <c r="H361" s="73"/>
-      <c r="I361" s="74"/>
-      <c r="J361" s="77"/>
-      <c r="K361" s="78"/>
+      <c r="F361" s="78"/>
+      <c r="G361" s="79"/>
+      <c r="H361" s="68"/>
+      <c r="I361" s="69"/>
+      <c r="J361" s="72"/>
+      <c r="K361" s="73"/>
     </row>
     <row r="362" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I362" s="3"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="57"/>
-      <c r="B363" s="57"/>
-      <c r="C363" s="57"/>
-      <c r="D363" s="57"/>
-      <c r="E363" s="57"/>
-      <c r="F363" s="57"/>
-      <c r="G363" s="57"/>
-      <c r="H363" s="57"/>
-      <c r="I363" s="57"/>
-      <c r="J363" s="57"/>
-      <c r="K363" s="57"/>
+      <c r="A363" s="62"/>
+      <c r="B363" s="62"/>
+      <c r="C363" s="62"/>
+      <c r="D363" s="62"/>
+      <c r="E363" s="62"/>
+      <c r="F363" s="62"/>
+      <c r="G363" s="62"/>
+      <c r="H363" s="62"/>
+      <c r="I363" s="62"/>
+      <c r="J363" s="62"/>
+      <c r="K363" s="62"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="57"/>
-      <c r="B364" s="57"/>
-      <c r="C364" s="57"/>
-      <c r="D364" s="57"/>
-      <c r="E364" s="57"/>
-      <c r="F364" s="57"/>
-      <c r="G364" s="57"/>
-      <c r="H364" s="57"/>
-      <c r="I364" s="57"/>
-      <c r="J364" s="57"/>
-      <c r="K364" s="57"/>
+      <c r="A364" s="62"/>
+      <c r="B364" s="62"/>
+      <c r="C364" s="62"/>
+      <c r="D364" s="62"/>
+      <c r="E364" s="62"/>
+      <c r="F364" s="62"/>
+      <c r="G364" s="62"/>
+      <c r="H364" s="62"/>
+      <c r="I364" s="62"/>
+      <c r="J364" s="62"/>
+      <c r="K364" s="62"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="58" t="s">
+      <c r="A365" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B365" s="58"/>
-      <c r="C365" s="58"/>
-      <c r="D365" s="58"/>
-      <c r="E365" s="58"/>
-      <c r="F365" s="58"/>
-      <c r="G365" s="58"/>
-      <c r="H365" s="58"/>
-      <c r="I365" s="58"/>
-      <c r="J365" s="58"/>
-      <c r="K365" s="58"/>
+      <c r="B365" s="52"/>
+      <c r="C365" s="52"/>
+      <c r="D365" s="52"/>
+      <c r="E365" s="52"/>
+      <c r="F365" s="52"/>
+      <c r="G365" s="52"/>
+      <c r="H365" s="52"/>
+      <c r="I365" s="52"/>
+      <c r="J365" s="52"/>
+      <c r="K365" s="52"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="58"/>
-      <c r="B366" s="58"/>
-      <c r="C366" s="58"/>
-      <c r="D366" s="58"/>
-      <c r="E366" s="58"/>
-      <c r="F366" s="58"/>
-      <c r="G366" s="58"/>
-      <c r="H366" s="58"/>
-      <c r="I366" s="58"/>
-      <c r="J366" s="58"/>
-      <c r="K366" s="58"/>
+      <c r="A366" s="52"/>
+      <c r="B366" s="52"/>
+      <c r="C366" s="52"/>
+      <c r="D366" s="52"/>
+      <c r="E366" s="52"/>
+      <c r="F366" s="52"/>
+      <c r="G366" s="52"/>
+      <c r="H366" s="52"/>
+      <c r="I366" s="52"/>
+      <c r="J366" s="52"/>
+      <c r="K366" s="52"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="58"/>
-      <c r="B367" s="58"/>
-      <c r="C367" s="58"/>
-      <c r="D367" s="58"/>
-      <c r="E367" s="58"/>
-      <c r="F367" s="58"/>
-      <c r="G367" s="58"/>
-      <c r="H367" s="58"/>
-      <c r="I367" s="58"/>
-      <c r="J367" s="58"/>
-      <c r="K367" s="58"/>
+      <c r="A367" s="52"/>
+      <c r="B367" s="52"/>
+      <c r="C367" s="52"/>
+      <c r="D367" s="52"/>
+      <c r="E367" s="52"/>
+      <c r="F367" s="52"/>
+      <c r="G367" s="52"/>
+      <c r="H367" s="52"/>
+      <c r="I367" s="52"/>
+      <c r="J367" s="52"/>
+      <c r="K367" s="52"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" s="58"/>
-      <c r="B368" s="58"/>
-      <c r="C368" s="58"/>
-      <c r="D368" s="58"/>
-      <c r="E368" s="58"/>
-      <c r="F368" s="58"/>
-      <c r="G368" s="58"/>
-      <c r="H368" s="58"/>
-      <c r="I368" s="58"/>
-      <c r="J368" s="58"/>
-      <c r="K368" s="58"/>
+      <c r="A368" s="52"/>
+      <c r="B368" s="52"/>
+      <c r="C368" s="52"/>
+      <c r="D368" s="52"/>
+      <c r="E368" s="52"/>
+      <c r="F368" s="52"/>
+      <c r="G368" s="52"/>
+      <c r="H368" s="52"/>
+      <c r="I368" s="52"/>
+      <c r="J368" s="52"/>
+      <c r="K368" s="52"/>
     </row>
     <row r="369" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="370" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C370" s="59"/>
-      <c r="D370" s="60"/>
-      <c r="E370" s="60"/>
-      <c r="F370" s="60"/>
-      <c r="G370" s="60"/>
-      <c r="H370" s="60"/>
-      <c r="I370" s="61"/>
+      <c r="C370" s="53"/>
+      <c r="D370" s="54"/>
+      <c r="E370" s="54"/>
+      <c r="F370" s="54"/>
+      <c r="G370" s="54"/>
+      <c r="H370" s="54"/>
+      <c r="I370" s="55"/>
     </row>
     <row r="371" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C371" s="62"/>
-      <c r="D371" s="63"/>
-      <c r="E371" s="63"/>
-      <c r="F371" s="63"/>
-      <c r="G371" s="63"/>
-      <c r="H371" s="63"/>
-      <c r="I371" s="64"/>
+      <c r="C371" s="56"/>
+      <c r="D371" s="57"/>
+      <c r="E371" s="57"/>
+      <c r="F371" s="57"/>
+      <c r="G371" s="57"/>
+      <c r="H371" s="57"/>
+      <c r="I371" s="58"/>
     </row>
     <row r="372" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C372" s="65"/>
-      <c r="D372" s="66"/>
-      <c r="E372" s="66"/>
-      <c r="F372" s="66"/>
-      <c r="G372" s="66"/>
-      <c r="H372" s="66"/>
-      <c r="I372" s="67"/>
+      <c r="C372" s="59"/>
+      <c r="D372" s="60"/>
+      <c r="E372" s="60"/>
+      <c r="F372" s="60"/>
+      <c r="G372" s="60"/>
+      <c r="H372" s="60"/>
+      <c r="I372" s="61"/>
     </row>
     <row r="373" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I373" s="3"/>
@@ -11765,34 +11851,34 @@
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
-      <c r="E435" s="68" t="s">
+      <c r="E435" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F435" s="69"/>
-      <c r="G435" s="70"/>
-      <c r="H435" s="71" t="s">
+      <c r="F435" s="64"/>
+      <c r="G435" s="65"/>
+      <c r="H435" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I435" s="72"/>
-      <c r="J435" s="75"/>
-      <c r="K435" s="76"/>
+      <c r="I435" s="67"/>
+      <c r="J435" s="70"/>
+      <c r="K435" s="71"/>
     </row>
     <row r="436" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A436" s="79" t="s">
+      <c r="A436" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B436" s="80"/>
-      <c r="C436" s="80"/>
-      <c r="D436" s="81"/>
-      <c r="E436" s="82">
+      <c r="B436" s="75"/>
+      <c r="C436" s="75"/>
+      <c r="D436" s="76"/>
+      <c r="E436" s="77">
         <v>140</v>
       </c>
-      <c r="F436" s="83"/>
-      <c r="G436" s="84"/>
-      <c r="H436" s="73"/>
-      <c r="I436" s="74"/>
-      <c r="J436" s="77"/>
-      <c r="K436" s="78"/>
+      <c r="F436" s="78"/>
+      <c r="G436" s="79"/>
+      <c r="H436" s="68"/>
+      <c r="I436" s="69"/>
+      <c r="J436" s="72"/>
+      <c r="K436" s="73"/>
     </row>
     <row r="437" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C437" s="19"/>
@@ -11804,112 +11890,112 @@
       <c r="I437" s="3"/>
     </row>
     <row r="438" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="57"/>
-      <c r="B438" s="57"/>
-      <c r="C438" s="57"/>
-      <c r="D438" s="57"/>
-      <c r="E438" s="57"/>
-      <c r="F438" s="57"/>
-      <c r="G438" s="57"/>
-      <c r="H438" s="57"/>
-      <c r="I438" s="57"/>
-      <c r="J438" s="57"/>
-      <c r="K438" s="57"/>
+      <c r="A438" s="62"/>
+      <c r="B438" s="62"/>
+      <c r="C438" s="62"/>
+      <c r="D438" s="62"/>
+      <c r="E438" s="62"/>
+      <c r="F438" s="62"/>
+      <c r="G438" s="62"/>
+      <c r="H438" s="62"/>
+      <c r="I438" s="62"/>
+      <c r="J438" s="62"/>
+      <c r="K438" s="62"/>
     </row>
     <row r="439" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="57"/>
-      <c r="B439" s="57"/>
-      <c r="C439" s="57"/>
-      <c r="D439" s="57"/>
-      <c r="E439" s="57"/>
-      <c r="F439" s="57"/>
-      <c r="G439" s="57"/>
-      <c r="H439" s="57"/>
-      <c r="I439" s="57"/>
-      <c r="J439" s="57"/>
-      <c r="K439" s="57"/>
+      <c r="A439" s="62"/>
+      <c r="B439" s="62"/>
+      <c r="C439" s="62"/>
+      <c r="D439" s="62"/>
+      <c r="E439" s="62"/>
+      <c r="F439" s="62"/>
+      <c r="G439" s="62"/>
+      <c r="H439" s="62"/>
+      <c r="I439" s="62"/>
+      <c r="J439" s="62"/>
+      <c r="K439" s="62"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="58" t="s">
+      <c r="A440" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B440" s="58"/>
-      <c r="C440" s="58"/>
-      <c r="D440" s="58"/>
-      <c r="E440" s="58"/>
-      <c r="F440" s="58"/>
-      <c r="G440" s="58"/>
-      <c r="H440" s="58"/>
-      <c r="I440" s="58"/>
-      <c r="J440" s="58"/>
-      <c r="K440" s="58"/>
+      <c r="B440" s="52"/>
+      <c r="C440" s="52"/>
+      <c r="D440" s="52"/>
+      <c r="E440" s="52"/>
+      <c r="F440" s="52"/>
+      <c r="G440" s="52"/>
+      <c r="H440" s="52"/>
+      <c r="I440" s="52"/>
+      <c r="J440" s="52"/>
+      <c r="K440" s="52"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" s="58"/>
-      <c r="B441" s="58"/>
-      <c r="C441" s="58"/>
-      <c r="D441" s="58"/>
-      <c r="E441" s="58"/>
-      <c r="F441" s="58"/>
-      <c r="G441" s="58"/>
-      <c r="H441" s="58"/>
-      <c r="I441" s="58"/>
-      <c r="J441" s="58"/>
-      <c r="K441" s="58"/>
+      <c r="A441" s="52"/>
+      <c r="B441" s="52"/>
+      <c r="C441" s="52"/>
+      <c r="D441" s="52"/>
+      <c r="E441" s="52"/>
+      <c r="F441" s="52"/>
+      <c r="G441" s="52"/>
+      <c r="H441" s="52"/>
+      <c r="I441" s="52"/>
+      <c r="J441" s="52"/>
+      <c r="K441" s="52"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="58"/>
-      <c r="B442" s="58"/>
-      <c r="C442" s="58"/>
-      <c r="D442" s="58"/>
-      <c r="E442" s="58"/>
-      <c r="F442" s="58"/>
-      <c r="G442" s="58"/>
-      <c r="H442" s="58"/>
-      <c r="I442" s="58"/>
-      <c r="J442" s="58"/>
-      <c r="K442" s="58"/>
+      <c r="A442" s="52"/>
+      <c r="B442" s="52"/>
+      <c r="C442" s="52"/>
+      <c r="D442" s="52"/>
+      <c r="E442" s="52"/>
+      <c r="F442" s="52"/>
+      <c r="G442" s="52"/>
+      <c r="H442" s="52"/>
+      <c r="I442" s="52"/>
+      <c r="J442" s="52"/>
+      <c r="K442" s="52"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" s="58"/>
-      <c r="B443" s="58"/>
-      <c r="C443" s="58"/>
-      <c r="D443" s="58"/>
-      <c r="E443" s="58"/>
-      <c r="F443" s="58"/>
-      <c r="G443" s="58"/>
-      <c r="H443" s="58"/>
-      <c r="I443" s="58"/>
-      <c r="J443" s="58"/>
-      <c r="K443" s="58"/>
+      <c r="A443" s="52"/>
+      <c r="B443" s="52"/>
+      <c r="C443" s="52"/>
+      <c r="D443" s="52"/>
+      <c r="E443" s="52"/>
+      <c r="F443" s="52"/>
+      <c r="G443" s="52"/>
+      <c r="H443" s="52"/>
+      <c r="I443" s="52"/>
+      <c r="J443" s="52"/>
+      <c r="K443" s="52"/>
     </row>
     <row r="444" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C445" s="59"/>
-      <c r="D445" s="60"/>
-      <c r="E445" s="60"/>
-      <c r="F445" s="60"/>
-      <c r="G445" s="60"/>
-      <c r="H445" s="60"/>
-      <c r="I445" s="61"/>
+      <c r="C445" s="53"/>
+      <c r="D445" s="54"/>
+      <c r="E445" s="54"/>
+      <c r="F445" s="54"/>
+      <c r="G445" s="54"/>
+      <c r="H445" s="54"/>
+      <c r="I445" s="55"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C446" s="62"/>
-      <c r="D446" s="63"/>
-      <c r="E446" s="63"/>
-      <c r="F446" s="63"/>
-      <c r="G446" s="63"/>
-      <c r="H446" s="63"/>
-      <c r="I446" s="64"/>
+      <c r="C446" s="56"/>
+      <c r="D446" s="57"/>
+      <c r="E446" s="57"/>
+      <c r="F446" s="57"/>
+      <c r="G446" s="57"/>
+      <c r="H446" s="57"/>
+      <c r="I446" s="58"/>
     </row>
     <row r="447" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C447" s="65"/>
-      <c r="D447" s="66"/>
-      <c r="E447" s="66"/>
-      <c r="F447" s="66"/>
-      <c r="G447" s="66"/>
-      <c r="H447" s="66"/>
-      <c r="I447" s="67"/>
+      <c r="C447" s="59"/>
+      <c r="D447" s="60"/>
+      <c r="E447" s="60"/>
+      <c r="F447" s="60"/>
+      <c r="G447" s="60"/>
+      <c r="H447" s="60"/>
+      <c r="I447" s="61"/>
     </row>
     <row r="448" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C448" s="19"/>
@@ -13288,17 +13374,17 @@
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
-      <c r="E508" s="68" t="s">
+      <c r="E508" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F508" s="69"/>
-      <c r="G508" s="70"/>
-      <c r="H508" s="71" t="s">
+      <c r="F508" s="64"/>
+      <c r="G508" s="65"/>
+      <c r="H508" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I508" s="72"/>
-      <c r="J508" s="75"/>
-      <c r="K508" s="76"/>
+      <c r="I508" s="67"/>
+      <c r="J508" s="70"/>
+      <c r="K508" s="71"/>
       <c r="R508">
         <v>507</v>
       </c>
@@ -13316,21 +13402,21 @@
       </c>
     </row>
     <row r="509" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A509" s="79" t="s">
+      <c r="A509" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B509" s="80"/>
-      <c r="C509" s="80"/>
-      <c r="D509" s="81"/>
-      <c r="E509" s="82">
+      <c r="B509" s="75"/>
+      <c r="C509" s="75"/>
+      <c r="D509" s="76"/>
+      <c r="E509" s="77">
         <v>140</v>
       </c>
-      <c r="F509" s="83"/>
-      <c r="G509" s="84"/>
-      <c r="H509" s="73"/>
-      <c r="I509" s="74"/>
-      <c r="J509" s="77"/>
-      <c r="K509" s="78"/>
+      <c r="F509" s="78"/>
+      <c r="G509" s="79"/>
+      <c r="H509" s="68"/>
+      <c r="I509" s="69"/>
+      <c r="J509" s="72"/>
+      <c r="K509" s="73"/>
       <c r="R509">
         <v>508</v>
       </c>
@@ -13348,17 +13434,17 @@
       </c>
     </row>
     <row r="510" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A510" s="57"/>
-      <c r="B510" s="57"/>
-      <c r="C510" s="57"/>
-      <c r="D510" s="57"/>
-      <c r="E510" s="57"/>
-      <c r="F510" s="57"/>
-      <c r="G510" s="57"/>
-      <c r="H510" s="57"/>
-      <c r="I510" s="57"/>
-      <c r="J510" s="57"/>
-      <c r="K510" s="57"/>
+      <c r="A510" s="62"/>
+      <c r="B510" s="62"/>
+      <c r="C510" s="62"/>
+      <c r="D510" s="62"/>
+      <c r="E510" s="62"/>
+      <c r="F510" s="62"/>
+      <c r="G510" s="62"/>
+      <c r="H510" s="62"/>
+      <c r="I510" s="62"/>
+      <c r="J510" s="62"/>
+      <c r="K510" s="62"/>
       <c r="R510">
         <v>509</v>
       </c>
@@ -13376,17 +13462,17 @@
       </c>
     </row>
     <row r="511" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="57"/>
-      <c r="B511" s="57"/>
-      <c r="C511" s="57"/>
-      <c r="D511" s="57"/>
-      <c r="E511" s="57"/>
-      <c r="F511" s="57"/>
-      <c r="G511" s="57"/>
-      <c r="H511" s="57"/>
-      <c r="I511" s="57"/>
-      <c r="J511" s="57"/>
-      <c r="K511" s="57"/>
+      <c r="A511" s="62"/>
+      <c r="B511" s="62"/>
+      <c r="C511" s="62"/>
+      <c r="D511" s="62"/>
+      <c r="E511" s="62"/>
+      <c r="F511" s="62"/>
+      <c r="G511" s="62"/>
+      <c r="H511" s="62"/>
+      <c r="I511" s="62"/>
+      <c r="J511" s="62"/>
+      <c r="K511" s="62"/>
       <c r="R511">
         <v>510</v>
       </c>
@@ -13404,19 +13490,19 @@
       </c>
     </row>
     <row r="512" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A512" s="58" t="s">
+      <c r="A512" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B512" s="58"/>
-      <c r="C512" s="58"/>
-      <c r="D512" s="58"/>
-      <c r="E512" s="58"/>
-      <c r="F512" s="58"/>
-      <c r="G512" s="58"/>
-      <c r="H512" s="58"/>
-      <c r="I512" s="58"/>
-      <c r="J512" s="58"/>
-      <c r="K512" s="58"/>
+      <c r="B512" s="52"/>
+      <c r="C512" s="52"/>
+      <c r="D512" s="52"/>
+      <c r="E512" s="52"/>
+      <c r="F512" s="52"/>
+      <c r="G512" s="52"/>
+      <c r="H512" s="52"/>
+      <c r="I512" s="52"/>
+      <c r="J512" s="52"/>
+      <c r="K512" s="52"/>
       <c r="R512">
         <v>511</v>
       </c>
@@ -13434,17 +13520,17 @@
       </c>
     </row>
     <row r="513" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A513" s="58"/>
-      <c r="B513" s="58"/>
-      <c r="C513" s="58"/>
-      <c r="D513" s="58"/>
-      <c r="E513" s="58"/>
-      <c r="F513" s="58"/>
-      <c r="G513" s="58"/>
-      <c r="H513" s="58"/>
-      <c r="I513" s="58"/>
-      <c r="J513" s="58"/>
-      <c r="K513" s="58"/>
+      <c r="A513" s="52"/>
+      <c r="B513" s="52"/>
+      <c r="C513" s="52"/>
+      <c r="D513" s="52"/>
+      <c r="E513" s="52"/>
+      <c r="F513" s="52"/>
+      <c r="G513" s="52"/>
+      <c r="H513" s="52"/>
+      <c r="I513" s="52"/>
+      <c r="J513" s="52"/>
+      <c r="K513" s="52"/>
       <c r="R513">
         <v>512</v>
       </c>
@@ -13462,17 +13548,17 @@
       </c>
     </row>
     <row r="514" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A514" s="58"/>
-      <c r="B514" s="58"/>
-      <c r="C514" s="58"/>
-      <c r="D514" s="58"/>
-      <c r="E514" s="58"/>
-      <c r="F514" s="58"/>
-      <c r="G514" s="58"/>
-      <c r="H514" s="58"/>
-      <c r="I514" s="58"/>
-      <c r="J514" s="58"/>
-      <c r="K514" s="58"/>
+      <c r="A514" s="52"/>
+      <c r="B514" s="52"/>
+      <c r="C514" s="52"/>
+      <c r="D514" s="52"/>
+      <c r="E514" s="52"/>
+      <c r="F514" s="52"/>
+      <c r="G514" s="52"/>
+      <c r="H514" s="52"/>
+      <c r="I514" s="52"/>
+      <c r="J514" s="52"/>
+      <c r="K514" s="52"/>
       <c r="R514">
         <v>513</v>
       </c>
@@ -13490,17 +13576,17 @@
       </c>
     </row>
     <row r="515" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A515" s="58"/>
-      <c r="B515" s="58"/>
-      <c r="C515" s="58"/>
-      <c r="D515" s="58"/>
-      <c r="E515" s="58"/>
-      <c r="F515" s="58"/>
-      <c r="G515" s="58"/>
-      <c r="H515" s="58"/>
-      <c r="I515" s="58"/>
-      <c r="J515" s="58"/>
-      <c r="K515" s="58"/>
+      <c r="A515" s="52"/>
+      <c r="B515" s="52"/>
+      <c r="C515" s="52"/>
+      <c r="D515" s="52"/>
+      <c r="E515" s="52"/>
+      <c r="F515" s="52"/>
+      <c r="G515" s="52"/>
+      <c r="H515" s="52"/>
+      <c r="I515" s="52"/>
+      <c r="J515" s="52"/>
+      <c r="K515" s="52"/>
       <c r="R515">
         <v>514</v>
       </c>
@@ -13535,13 +13621,13 @@
       </c>
     </row>
     <row r="517" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C517" s="59"/>
-      <c r="D517" s="60"/>
-      <c r="E517" s="60"/>
-      <c r="F517" s="60"/>
-      <c r="G517" s="60"/>
-      <c r="H517" s="60"/>
-      <c r="I517" s="61"/>
+      <c r="C517" s="53"/>
+      <c r="D517" s="54"/>
+      <c r="E517" s="54"/>
+      <c r="F517" s="54"/>
+      <c r="G517" s="54"/>
+      <c r="H517" s="54"/>
+      <c r="I517" s="55"/>
       <c r="R517">
         <v>516</v>
       </c>
@@ -13559,13 +13645,13 @@
       </c>
     </row>
     <row r="518" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C518" s="62"/>
-      <c r="D518" s="63"/>
-      <c r="E518" s="63"/>
-      <c r="F518" s="63"/>
-      <c r="G518" s="63"/>
-      <c r="H518" s="63"/>
-      <c r="I518" s="64"/>
+      <c r="C518" s="56"/>
+      <c r="D518" s="57"/>
+      <c r="E518" s="57"/>
+      <c r="F518" s="57"/>
+      <c r="G518" s="57"/>
+      <c r="H518" s="57"/>
+      <c r="I518" s="58"/>
       <c r="R518">
         <v>517</v>
       </c>
@@ -13583,13 +13669,13 @@
       </c>
     </row>
     <row r="519" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C519" s="65"/>
-      <c r="D519" s="66"/>
-      <c r="E519" s="66"/>
-      <c r="F519" s="66"/>
-      <c r="G519" s="66"/>
-      <c r="H519" s="66"/>
-      <c r="I519" s="67"/>
+      <c r="C519" s="59"/>
+      <c r="D519" s="60"/>
+      <c r="E519" s="60"/>
+      <c r="F519" s="60"/>
+      <c r="G519" s="60"/>
+      <c r="H519" s="60"/>
+      <c r="I519" s="61"/>
       <c r="R519">
         <v>518</v>
       </c>
@@ -15430,142 +15516,142 @@
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
-      <c r="E581" s="68" t="s">
+      <c r="E581" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F581" s="69"/>
-      <c r="G581" s="70"/>
-      <c r="H581" s="71" t="s">
+      <c r="F581" s="64"/>
+      <c r="G581" s="65"/>
+      <c r="H581" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I581" s="72"/>
-      <c r="J581" s="75"/>
-      <c r="K581" s="76"/>
+      <c r="I581" s="67"/>
+      <c r="J581" s="70"/>
+      <c r="K581" s="71"/>
     </row>
     <row r="582" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A582" s="79" t="s">
+      <c r="A582" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B582" s="80"/>
-      <c r="C582" s="80"/>
-      <c r="D582" s="81"/>
-      <c r="E582" s="82">
+      <c r="B582" s="75"/>
+      <c r="C582" s="75"/>
+      <c r="D582" s="76"/>
+      <c r="E582" s="77">
         <v>140</v>
       </c>
-      <c r="F582" s="83"/>
-      <c r="G582" s="84"/>
-      <c r="H582" s="73"/>
-      <c r="I582" s="74"/>
-      <c r="J582" s="77"/>
-      <c r="K582" s="78"/>
+      <c r="F582" s="78"/>
+      <c r="G582" s="79"/>
+      <c r="H582" s="68"/>
+      <c r="I582" s="69"/>
+      <c r="J582" s="72"/>
+      <c r="K582" s="73"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="57"/>
-      <c r="B583" s="57"/>
-      <c r="C583" s="57"/>
-      <c r="D583" s="57"/>
-      <c r="E583" s="57"/>
-      <c r="F583" s="57"/>
-      <c r="G583" s="57"/>
-      <c r="H583" s="57"/>
-      <c r="I583" s="57"/>
-      <c r="J583" s="57"/>
-      <c r="K583" s="57"/>
+      <c r="A583" s="62"/>
+      <c r="B583" s="62"/>
+      <c r="C583" s="62"/>
+      <c r="D583" s="62"/>
+      <c r="E583" s="62"/>
+      <c r="F583" s="62"/>
+      <c r="G583" s="62"/>
+      <c r="H583" s="62"/>
+      <c r="I583" s="62"/>
+      <c r="J583" s="62"/>
+      <c r="K583" s="62"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="57"/>
-      <c r="B584" s="57"/>
-      <c r="C584" s="57"/>
-      <c r="D584" s="57"/>
-      <c r="E584" s="57"/>
-      <c r="F584" s="57"/>
-      <c r="G584" s="57"/>
-      <c r="H584" s="57"/>
-      <c r="I584" s="57"/>
-      <c r="J584" s="57"/>
-      <c r="K584" s="57"/>
+      <c r="A584" s="62"/>
+      <c r="B584" s="62"/>
+      <c r="C584" s="62"/>
+      <c r="D584" s="62"/>
+      <c r="E584" s="62"/>
+      <c r="F584" s="62"/>
+      <c r="G584" s="62"/>
+      <c r="H584" s="62"/>
+      <c r="I584" s="62"/>
+      <c r="J584" s="62"/>
+      <c r="K584" s="62"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="58" t="s">
+      <c r="A585" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B585" s="58"/>
-      <c r="C585" s="58"/>
-      <c r="D585" s="58"/>
-      <c r="E585" s="58"/>
-      <c r="F585" s="58"/>
-      <c r="G585" s="58"/>
-      <c r="H585" s="58"/>
-      <c r="I585" s="58"/>
-      <c r="J585" s="58"/>
-      <c r="K585" s="58"/>
+      <c r="B585" s="52"/>
+      <c r="C585" s="52"/>
+      <c r="D585" s="52"/>
+      <c r="E585" s="52"/>
+      <c r="F585" s="52"/>
+      <c r="G585" s="52"/>
+      <c r="H585" s="52"/>
+      <c r="I585" s="52"/>
+      <c r="J585" s="52"/>
+      <c r="K585" s="52"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="58"/>
-      <c r="B586" s="58"/>
-      <c r="C586" s="58"/>
-      <c r="D586" s="58"/>
-      <c r="E586" s="58"/>
-      <c r="F586" s="58"/>
-      <c r="G586" s="58"/>
-      <c r="H586" s="58"/>
-      <c r="I586" s="58"/>
-      <c r="J586" s="58"/>
-      <c r="K586" s="58"/>
+      <c r="A586" s="52"/>
+      <c r="B586" s="52"/>
+      <c r="C586" s="52"/>
+      <c r="D586" s="52"/>
+      <c r="E586" s="52"/>
+      <c r="F586" s="52"/>
+      <c r="G586" s="52"/>
+      <c r="H586" s="52"/>
+      <c r="I586" s="52"/>
+      <c r="J586" s="52"/>
+      <c r="K586" s="52"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="58"/>
-      <c r="B587" s="58"/>
-      <c r="C587" s="58"/>
-      <c r="D587" s="58"/>
-      <c r="E587" s="58"/>
-      <c r="F587" s="58"/>
-      <c r="G587" s="58"/>
-      <c r="H587" s="58"/>
-      <c r="I587" s="58"/>
-      <c r="J587" s="58"/>
-      <c r="K587" s="58"/>
+      <c r="A587" s="52"/>
+      <c r="B587" s="52"/>
+      <c r="C587" s="52"/>
+      <c r="D587" s="52"/>
+      <c r="E587" s="52"/>
+      <c r="F587" s="52"/>
+      <c r="G587" s="52"/>
+      <c r="H587" s="52"/>
+      <c r="I587" s="52"/>
+      <c r="J587" s="52"/>
+      <c r="K587" s="52"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A588" s="58"/>
-      <c r="B588" s="58"/>
-      <c r="C588" s="58"/>
-      <c r="D588" s="58"/>
-      <c r="E588" s="58"/>
-      <c r="F588" s="58"/>
-      <c r="G588" s="58"/>
-      <c r="H588" s="58"/>
-      <c r="I588" s="58"/>
-      <c r="J588" s="58"/>
-      <c r="K588" s="58"/>
+      <c r="A588" s="52"/>
+      <c r="B588" s="52"/>
+      <c r="C588" s="52"/>
+      <c r="D588" s="52"/>
+      <c r="E588" s="52"/>
+      <c r="F588" s="52"/>
+      <c r="G588" s="52"/>
+      <c r="H588" s="52"/>
+      <c r="I588" s="52"/>
+      <c r="J588" s="52"/>
+      <c r="K588" s="52"/>
     </row>
     <row r="589" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C590" s="59"/>
-      <c r="D590" s="60"/>
-      <c r="E590" s="60"/>
-      <c r="F590" s="60"/>
-      <c r="G590" s="60"/>
-      <c r="H590" s="60"/>
-      <c r="I590" s="61"/>
+      <c r="C590" s="53"/>
+      <c r="D590" s="54"/>
+      <c r="E590" s="54"/>
+      <c r="F590" s="54"/>
+      <c r="G590" s="54"/>
+      <c r="H590" s="54"/>
+      <c r="I590" s="55"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C591" s="62"/>
-      <c r="D591" s="63"/>
-      <c r="E591" s="63"/>
-      <c r="F591" s="63"/>
-      <c r="G591" s="63"/>
-      <c r="H591" s="63"/>
-      <c r="I591" s="64"/>
+      <c r="C591" s="56"/>
+      <c r="D591" s="57"/>
+      <c r="E591" s="57"/>
+      <c r="F591" s="57"/>
+      <c r="G591" s="57"/>
+      <c r="H591" s="57"/>
+      <c r="I591" s="58"/>
     </row>
     <row r="592" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C592" s="65"/>
-      <c r="D592" s="66"/>
-      <c r="E592" s="66"/>
-      <c r="F592" s="66"/>
-      <c r="G592" s="66"/>
-      <c r="H592" s="66"/>
-      <c r="I592" s="67"/>
+      <c r="C592" s="59"/>
+      <c r="D592" s="60"/>
+      <c r="E592" s="60"/>
+      <c r="F592" s="60"/>
+      <c r="G592" s="60"/>
+      <c r="H592" s="60"/>
+      <c r="I592" s="61"/>
     </row>
     <row r="593" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C593" s="19"/>
@@ -15577,25 +15663,25 @@
       <c r="I593" s="3"/>
     </row>
     <row r="594" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C594" s="42" t="s">
+      <c r="C594" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D594" s="42" t="s">
+      <c r="D594" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E594" s="42" t="s">
+      <c r="E594" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F594" s="42" t="s">
+      <c r="F594" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G594" s="42" t="s">
+      <c r="G594" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H594" s="42" t="s">
+      <c r="H594" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I594" s="43" t="s">
+      <c r="I594" s="38" t="s">
         <v>11</v>
       </c>
     </row>
@@ -15618,7 +15704,7 @@
       <c r="H595" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I595" s="44" t="s">
+      <c r="I595" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15641,7 +15727,7 @@
       <c r="H596" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I596" s="44" t="s">
+      <c r="I596" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15664,7 +15750,7 @@
       <c r="H597" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I597" s="44" t="s">
+      <c r="I597" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15687,7 +15773,7 @@
       <c r="H598" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I598" s="44" t="s">
+      <c r="I598" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15710,7 +15796,7 @@
       <c r="H599" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I599" s="44" t="s">
+      <c r="I599" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15733,7 +15819,7 @@
       <c r="H600" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I600" s="44" t="s">
+      <c r="I600" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15756,7 +15842,7 @@
       <c r="H601" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I601" s="44" t="s">
+      <c r="I601" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15779,7 +15865,7 @@
       <c r="H602" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I602" s="44" t="s">
+      <c r="I602" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15802,7 +15888,7 @@
       <c r="H603" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I603" s="44" t="s">
+      <c r="I603" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15825,7 +15911,7 @@
       <c r="H604" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I604" s="44" t="s">
+      <c r="I604" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15848,7 +15934,7 @@
       <c r="H605" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I605" s="44" t="s">
+      <c r="I605" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15871,7 +15957,7 @@
       <c r="H606" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I606" s="44" t="s">
+      <c r="I606" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15894,7 +15980,7 @@
       <c r="H607" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I607" s="44" t="s">
+      <c r="I607" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15917,7 +16003,7 @@
       <c r="H608" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I608" s="44" t="s">
+      <c r="I608" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15940,7 +16026,7 @@
       <c r="H609" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I609" s="44" t="s">
+      <c r="I609" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15963,7 +16049,7 @@
       <c r="H610" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I610" s="44" t="s">
+      <c r="I610" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15986,7 +16072,7 @@
       <c r="H611" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I611" s="44" t="s">
+      <c r="I611" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16009,7 +16095,7 @@
       <c r="H612" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I612" s="44" t="s">
+      <c r="I612" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16032,7 +16118,7 @@
       <c r="H613" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I613" s="44" t="s">
+      <c r="I613" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16055,7 +16141,7 @@
       <c r="H614" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I614" s="44" t="s">
+      <c r="I614" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16078,7 +16164,7 @@
       <c r="H615" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I615" s="44" t="s">
+      <c r="I615" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16101,7 +16187,7 @@
       <c r="H616" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I616" s="44" t="s">
+      <c r="I616" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16124,7 +16210,7 @@
       <c r="H617" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I617" s="44" t="s">
+      <c r="I617" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16147,7 +16233,7 @@
       <c r="H618" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I618" s="44" t="s">
+      <c r="I618" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16170,7 +16256,7 @@
       <c r="H619" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I619" s="44" t="s">
+      <c r="I619" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16193,7 +16279,7 @@
       <c r="H620" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I620" s="44" t="s">
+      <c r="I620" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16216,7 +16302,7 @@
       <c r="H621" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I621" s="44" t="s">
+      <c r="I621" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16239,7 +16325,7 @@
       <c r="H622" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I622" s="44" t="s">
+      <c r="I622" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16262,7 +16348,7 @@
       <c r="H623" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I623" s="44" t="s">
+      <c r="I623" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16285,7 +16371,7 @@
       <c r="H624" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I624" s="44" t="s">
+      <c r="I624" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16308,7 +16394,7 @@
       <c r="H625" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I625" s="44" t="s">
+      <c r="I625" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16331,7 +16417,7 @@
       <c r="H626" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I626" s="44" t="s">
+      <c r="I626" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16354,7 +16440,7 @@
       <c r="H627" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I627" s="44" t="s">
+      <c r="I627" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16377,7 +16463,7 @@
       <c r="H628" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I628" s="44" t="s">
+      <c r="I628" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16400,7 +16486,7 @@
       <c r="H629" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I629" s="44" t="s">
+      <c r="I629" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16423,7 +16509,7 @@
       <c r="H630" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I630" s="44" t="s">
+      <c r="I630" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16446,7 +16532,7 @@
       <c r="H631" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I631" s="44" t="s">
+      <c r="I631" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16469,7 +16555,7 @@
       <c r="H632" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I632" s="44" t="s">
+      <c r="I632" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16492,7 +16578,7 @@
       <c r="H633" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I633" s="44" t="s">
+      <c r="I633" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16515,7 +16601,7 @@
       <c r="H634" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I634" s="44" t="s">
+      <c r="I634" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16538,7 +16624,7 @@
       <c r="H635" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I635" s="44" t="s">
+      <c r="I635" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16561,7 +16647,7 @@
       <c r="H636" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I636" s="44" t="s">
+      <c r="I636" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16584,7 +16670,7 @@
       <c r="H637" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I637" s="44" t="s">
+      <c r="I637" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16607,7 +16693,7 @@
       <c r="H638" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I638" s="44" t="s">
+      <c r="I638" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16630,7 +16716,7 @@
       <c r="H639" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I639" s="44" t="s">
+      <c r="I639" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16653,7 +16739,7 @@
       <c r="H640" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I640" s="44" t="s">
+      <c r="I640" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16676,7 +16762,7 @@
       <c r="H641" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I641" s="44" t="s">
+      <c r="I641" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16699,7 +16785,7 @@
       <c r="H642" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I642" s="44" t="s">
+      <c r="I642" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16722,7 +16808,7 @@
       <c r="H643" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I643" s="44" t="s">
+      <c r="I643" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16745,7 +16831,7 @@
       <c r="H644" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I644" s="44" t="s">
+      <c r="I644" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16768,7 +16854,7 @@
       <c r="H645" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I645" s="44" t="s">
+      <c r="I645" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16791,7 +16877,7 @@
       <c r="H646" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I646" s="44" t="s">
+      <c r="I646" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16874,34 +16960,34 @@
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
-      <c r="E655" s="68" t="s">
+      <c r="E655" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F655" s="69"/>
-      <c r="G655" s="70"/>
-      <c r="H655" s="71" t="s">
+      <c r="F655" s="64"/>
+      <c r="G655" s="65"/>
+      <c r="H655" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I655" s="72"/>
-      <c r="J655" s="75"/>
-      <c r="K655" s="76"/>
+      <c r="I655" s="67"/>
+      <c r="J655" s="70"/>
+      <c r="K655" s="71"/>
     </row>
     <row r="656" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A656" s="79" t="s">
+      <c r="A656" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B656" s="80"/>
-      <c r="C656" s="80"/>
-      <c r="D656" s="81"/>
-      <c r="E656" s="82">
+      <c r="B656" s="75"/>
+      <c r="C656" s="75"/>
+      <c r="D656" s="76"/>
+      <c r="E656" s="77">
         <v>140</v>
       </c>
-      <c r="F656" s="83"/>
-      <c r="G656" s="84"/>
-      <c r="H656" s="73"/>
-      <c r="I656" s="74"/>
-      <c r="J656" s="77"/>
-      <c r="K656" s="78"/>
+      <c r="F656" s="78"/>
+      <c r="G656" s="79"/>
+      <c r="H656" s="68"/>
+      <c r="I656" s="69"/>
+      <c r="J656" s="72"/>
+      <c r="K656" s="73"/>
     </row>
     <row r="657" spans="3:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C657" s="19"/>
@@ -16914,22 +17000,47 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A293:K296"/>
-    <mergeCell ref="C298:I300"/>
-    <mergeCell ref="A363:K364"/>
-    <mergeCell ref="A365:K368"/>
-    <mergeCell ref="C370:I372"/>
-    <mergeCell ref="E360:G360"/>
-    <mergeCell ref="H360:I361"/>
-    <mergeCell ref="J360:K361"/>
-    <mergeCell ref="A361:D361"/>
-    <mergeCell ref="E361:G361"/>
-    <mergeCell ref="E289:G289"/>
-    <mergeCell ref="H289:I290"/>
-    <mergeCell ref="J289:K290"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A291:K292"/>
-    <mergeCell ref="E290:G290"/>
+    <mergeCell ref="A583:K584"/>
+    <mergeCell ref="A585:K588"/>
+    <mergeCell ref="C590:I592"/>
+    <mergeCell ref="E655:G655"/>
+    <mergeCell ref="H655:I656"/>
+    <mergeCell ref="J655:K656"/>
+    <mergeCell ref="A656:D656"/>
+    <mergeCell ref="E656:G656"/>
+    <mergeCell ref="E581:G581"/>
+    <mergeCell ref="H581:I582"/>
+    <mergeCell ref="J581:K582"/>
+    <mergeCell ref="A582:D582"/>
+    <mergeCell ref="E582:G582"/>
+    <mergeCell ref="A510:K511"/>
+    <mergeCell ref="A512:K515"/>
+    <mergeCell ref="C517:I519"/>
+    <mergeCell ref="E435:G435"/>
+    <mergeCell ref="H435:I436"/>
+    <mergeCell ref="J435:K436"/>
+    <mergeCell ref="A436:D436"/>
+    <mergeCell ref="E436:G436"/>
+    <mergeCell ref="A438:K439"/>
+    <mergeCell ref="A440:K443"/>
+    <mergeCell ref="C445:I447"/>
+    <mergeCell ref="E509:G509"/>
+    <mergeCell ref="E508:G508"/>
+    <mergeCell ref="H508:I509"/>
+    <mergeCell ref="J508:K509"/>
+    <mergeCell ref="A509:D509"/>
+    <mergeCell ref="A219:K222"/>
+    <mergeCell ref="B62:H63"/>
+    <mergeCell ref="A72:K73"/>
+    <mergeCell ref="A74:K77"/>
+    <mergeCell ref="C79:I81"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H215:I216"/>
+    <mergeCell ref="J215:K216"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="E216:G216"/>
+    <mergeCell ref="A217:K218"/>
     <mergeCell ref="C224:I226"/>
     <mergeCell ref="C8:I10"/>
     <mergeCell ref="A3:K6"/>
@@ -16946,47 +17057,22 @@
     <mergeCell ref="A147:K150"/>
     <mergeCell ref="C152:I154"/>
     <mergeCell ref="E215:G215"/>
-    <mergeCell ref="A219:K222"/>
-    <mergeCell ref="B62:H63"/>
-    <mergeCell ref="A72:K73"/>
-    <mergeCell ref="A74:K77"/>
-    <mergeCell ref="C79:I81"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H215:I216"/>
-    <mergeCell ref="J215:K216"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="E216:G216"/>
-    <mergeCell ref="A217:K218"/>
-    <mergeCell ref="A510:K511"/>
-    <mergeCell ref="A512:K515"/>
-    <mergeCell ref="C517:I519"/>
-    <mergeCell ref="E435:G435"/>
-    <mergeCell ref="H435:I436"/>
-    <mergeCell ref="J435:K436"/>
-    <mergeCell ref="A436:D436"/>
-    <mergeCell ref="E436:G436"/>
-    <mergeCell ref="A438:K439"/>
-    <mergeCell ref="A440:K443"/>
-    <mergeCell ref="C445:I447"/>
-    <mergeCell ref="E509:G509"/>
-    <mergeCell ref="E508:G508"/>
-    <mergeCell ref="H508:I509"/>
-    <mergeCell ref="J508:K509"/>
-    <mergeCell ref="A509:D509"/>
-    <mergeCell ref="E581:G581"/>
-    <mergeCell ref="H581:I582"/>
-    <mergeCell ref="J581:K582"/>
-    <mergeCell ref="A582:D582"/>
-    <mergeCell ref="E582:G582"/>
-    <mergeCell ref="A583:K584"/>
-    <mergeCell ref="A585:K588"/>
-    <mergeCell ref="C590:I592"/>
-    <mergeCell ref="E655:G655"/>
-    <mergeCell ref="H655:I656"/>
-    <mergeCell ref="J655:K656"/>
-    <mergeCell ref="A656:D656"/>
-    <mergeCell ref="E656:G656"/>
+    <mergeCell ref="E289:G289"/>
+    <mergeCell ref="H289:I290"/>
+    <mergeCell ref="J289:K290"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A291:K292"/>
+    <mergeCell ref="E290:G290"/>
+    <mergeCell ref="A293:K296"/>
+    <mergeCell ref="C298:I300"/>
+    <mergeCell ref="A363:K364"/>
+    <mergeCell ref="A365:K368"/>
+    <mergeCell ref="C370:I372"/>
+    <mergeCell ref="E360:G360"/>
+    <mergeCell ref="H360:I361"/>
+    <mergeCell ref="J360:K361"/>
+    <mergeCell ref="A361:D361"/>
+    <mergeCell ref="E361:G361"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -16995,7 +17081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:U48"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
@@ -17018,20 +17104,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="O2" s="86" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="O2" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -18282,7 +18368,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="O28:S48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O28:S48">
     <sortCondition ref="O36"/>
   </sortState>
   <mergeCells count="2">
@@ -18295,7 +18381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -18317,13 +18403,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -18427,611 +18513,611 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="23">
         <v>879.46</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="25">
         <v>493.45548013813271</v>
       </c>
     </row>
-    <row r="10" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="23">
         <v>879.46</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="29">
         <v>44323</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="25">
         <v>493.45548013813271</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="23">
         <v>830.06</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="29">
         <v>44263</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="25">
         <v>465.73767521372019</v>
       </c>
     </row>
-    <row r="12" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="29">
         <v>44508</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="23">
         <v>415.89</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="25">
         <v>233.35137429177905</v>
       </c>
     </row>
-    <row r="14" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="23">
         <v>415.89</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="25">
         <v>233.35137429177905</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="23">
         <v>831.41</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="29">
         <v>44325</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="25">
         <v>466.49514559120922</v>
       </c>
     </row>
-    <row r="16" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="23">
         <v>414.32</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="25">
         <v>232.47046429721775</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="23">
         <v>414.44</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="25">
         <v>232.53779499743899</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="23">
         <v>825.05</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="29">
         <v>44207</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="25">
         <v>462.92661847948324</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="29">
         <v>44238</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="23">
         <v>406.6</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="29">
         <v>44480</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="25">
         <v>228.13885591631768</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="23">
         <v>846.03</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="29">
         <v>44267</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="25">
         <v>474.69826923483089</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="23">
         <v>416.71</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="29">
         <v>44420</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="25">
         <v>233.81146740995754</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="37">
         <v>5090.43</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="23">
         <v>814.04</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="29">
         <v>44595</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="25">
         <f>C25*0.561089168510373</f>
         <v>456.74902673418404</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="23">
         <v>407.48</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="25">
         <f t="shared" ref="F26:F40" si="0">C26*0.561089168510373</f>
         <v>228.63261438460682</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="23">
         <v>806.77</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="25">
         <f t="shared" si="0"/>
         <v>452.66990847911364</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="23">
         <v>399.18</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="25">
         <f t="shared" si="0"/>
         <v>223.97557428597071</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="23">
         <v>799.94</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="29">
         <v>44717</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="25">
         <f t="shared" si="0"/>
         <v>448.83766945818786</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="23">
         <v>397.96</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="25">
         <f t="shared" si="0"/>
         <v>223.29104550038804</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="23">
         <v>807.99</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="25">
         <f t="shared" si="0"/>
         <v>453.35443726469634</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="23">
         <v>400</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="29">
         <v>44657</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="25">
         <f t="shared" si="0"/>
         <v>224.43566740414923</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="23">
         <v>800.74</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="25">
         <f t="shared" si="0"/>
         <v>449.28654079299611</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="36" t="s">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="23">
         <v>397.53</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="25">
         <f t="shared" si="0"/>
         <v>223.04977715792859</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="36" t="s">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="23">
         <v>400.59</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="25">
         <f t="shared" si="0"/>
         <v>224.76671001357033</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="40">
         <v>3609.0489714757919</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="23">
         <v>807.92</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="29">
         <v>44719</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="25">
         <f t="shared" si="0"/>
         <v>453.31516102290055</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="36" t="s">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="23">
         <v>799.06</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="29">
         <v>44689</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="25">
         <f t="shared" si="0"/>
         <v>448.34391098989863</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="36" t="s">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="23">
         <v>396.91</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="25">
         <f t="shared" ref="F38" si="1">C38*0.561089168510373</f>
         <v>222.70190187345219</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38">
         <v>453.31516102290055</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="36" t="s">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="23">
         <v>799.06</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="25">
         <f t="shared" ref="F39" si="2">C39*0.561089168510373</f>
         <v>448.34391098989863</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39">
         <v>448.34391098989863</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="23">
         <v>396.91</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="25">
         <f t="shared" si="0"/>
         <v>222.70190187345219</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="41">
         <v>1795.3867582253934</v>
       </c>
-      <c r="H40" s="46" t="s">
+      <c r="H40" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40">
         <v>222.70190187345219</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="40">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="36">
         <f>F42-5090.45-3609.049</f>
         <v>1795.3867582253934</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" t="s">
         <v>100</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41">
         <v>448.34391098989863</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E42" s="24" t="s">
         <v>20</v>
       </c>
@@ -19039,7 +19125,7 @@
         <f>SUM(F4:F41)</f>
         <v>10494.885758225393</v>
       </c>
-      <c r="L42" s="39">
+      <c r="L42">
         <v>222.70190187345219</v>
       </c>
     </row>
@@ -19059,11 +19145,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G43"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -19080,24 +19166,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="B2" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="22" t="s">
         <v>26</v>
       </c>
@@ -19106,62 +19192,62 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="44">
         <v>27</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="45">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="46">
         <v>781.32</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="48">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="43">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="46">
         <v>781.32</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="48">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="23">
         <v>10</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="43">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="46">
         <v>781.32</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="48">
         <f>F6*0.56</f>
         <v>437.53920000000005</v>
       </c>
@@ -19170,19 +19256,19 @@
       <c r="B7" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="23">
         <v>16</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="43">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="46">
         <v>781.32</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="48">
         <f>F7*0.56</f>
         <v>437.53920000000005</v>
       </c>
@@ -19191,118 +19277,88 @@
       <c r="B8" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="43">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="46">
         <v>781.32</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="48">
         <f>F8*0.56</f>
         <v>437.53920000000005</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="56">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="42"/>
+      <c r="F9" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="49">
         <f>SUM(G4:G8)</f>
         <v>1582.6176</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-    </row>
-    <row r="11" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-    </row>
-    <row r="12" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-    </row>
-    <row r="13" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-    </row>
-    <row r="14" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-    </row>
-    <row r="15" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-    </row>
-    <row r="16" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-    </row>
-    <row r="18" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-    </row>
-    <row r="19" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-    </row>
-    <row r="20" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-    </row>
-    <row r="21" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-    </row>
-    <row r="26" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-    </row>
-    <row r="27" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-    </row>
-    <row r="28" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-    </row>
-    <row r="29" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="5:6" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19315,7 +19371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -19332,24 +19388,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="B2" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="22" t="s">
         <v>26</v>
       </c>
@@ -19358,160 +19414,151 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="44">
         <v>29</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="45">
         <v>0.4375</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="46">
         <v>523.67999999999995</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="48">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="43">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="46">
         <v>523.67999999999995</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="48">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="23">
         <v>11</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="43">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="46">
         <v>523.67999999999995</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="48">
         <f>F6*0.56</f>
         <v>293.26080000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="23">
         <v>28</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="43">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="46">
         <v>523.67999999999995</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="48">
         <f>F7*0.56</f>
         <v>293.26080000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="23">
         <v>1</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="43">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="46">
         <v>523.67999999999995</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="48">
         <f>F8*0.56</f>
         <v>293.26080000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="55"/>
-    </row>
-    <row r="10" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="56">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="42"/>
+      <c r="F10" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="49">
         <f>SUM(G4:G9)</f>
         <v>1149.7824000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
@@ -19523,179 +19570,224 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G40"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="101">
+        <v>23</v>
+      </c>
+      <c r="E5" s="102">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="103">
+        <v>679.23</v>
+      </c>
+      <c r="G5" s="104">
+        <v>150</v>
+      </c>
+      <c r="H5" s="107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="105">
+        <v>20</v>
+      </c>
+      <c r="E6" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="103">
+        <v>679.23</v>
+      </c>
+      <c r="G6" s="104">
+        <v>120</v>
+      </c>
+      <c r="H6" s="108"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="105">
+        <v>29</v>
+      </c>
+      <c r="E7" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="103">
+        <v>679.23</v>
+      </c>
+      <c r="G7" s="104">
+        <v>150</v>
+      </c>
+      <c r="H7" s="108"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="105">
+        <v>21</v>
+      </c>
+      <c r="E8" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="103">
+        <v>679.23</v>
+      </c>
+      <c r="G8" s="104">
+        <v>200</v>
+      </c>
+      <c r="H8" s="108"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="105">
+        <v>23</v>
+      </c>
+      <c r="E9" s="106">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F9" s="103">
+        <v>679.23</v>
+      </c>
+      <c r="G9" s="104">
+        <f>F9*0.5</f>
+        <v>339.61500000000001</v>
+      </c>
+      <c r="H9" s="108"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="97">
+        <v>15</v>
+      </c>
+      <c r="E10" s="98">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F10" s="99">
+        <v>679.23</v>
+      </c>
+      <c r="G10" s="100">
+        <f>F10*0.5</f>
+        <v>339.61500000000001</v>
+      </c>
+      <c r="H10" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="111">
+        <f>G10+G11</f>
+        <v>688.89499999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="51">
-        <v>19</v>
-      </c>
-      <c r="E5" s="52">
-        <v>0.375</v>
-      </c>
-      <c r="F5" s="53">
-        <v>717.73</v>
-      </c>
-      <c r="G5" s="55">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="36">
-        <v>21</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D11" s="97">
+        <v>27</v>
+      </c>
+      <c r="E11" s="98">
         <v>0.5</v>
       </c>
-      <c r="F6" s="53">
-        <v>717.73</v>
-      </c>
-      <c r="G6" s="55">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="36">
-        <v>11</v>
-      </c>
-      <c r="E7" s="49">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F7" s="53">
-        <v>717.73</v>
-      </c>
-      <c r="G7" s="55">
-        <f>F7*0.56</f>
-        <v>401.92880000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="36">
-        <v>19</v>
-      </c>
-      <c r="E8" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="53">
-        <v>717.73</v>
-      </c>
-      <c r="G8" s="55">
-        <f>F8*0.56</f>
-        <v>401.92880000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="56">
-        <f>SUM(G5:G8)</f>
-        <v>1073.8576</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F11" s="99">
+        <v>698.56</v>
+      </c>
+      <c r="G11" s="100">
+        <f>F11*0.5</f>
+        <v>349.28</v>
+      </c>
+      <c r="H11" s="110"/>
+      <c r="I11" s="112"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="42"/>
+      <c r="F12" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="49">
+        <f>SUM(G5:G11)</f>
+        <v>1648.51</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19703,10 +19795,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -19718,164 +19810,164 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94" t="s">
+      <c r="I3" s="88"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="87">
+        <v>1</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85">
+        <v>150</v>
+      </c>
+      <c r="I4" s="85"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="87">
+        <v>2</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85">
+        <v>150</v>
+      </c>
+      <c r="I5" s="85"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="87">
+        <v>3</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94" t="s">
+      <c r="E6" s="83"/>
+      <c r="F6" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="94"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="93">
-        <v>1</v>
-      </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="85">
+        <v>150</v>
+      </c>
+      <c r="I6" s="85"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="87">
+        <v>4</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85">
+        <v>120</v>
+      </c>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="87">
+        <v>5</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97">
-        <v>150</v>
-      </c>
-      <c r="I4" s="97"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="93">
-        <v>2</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="95" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97">
-        <v>150</v>
-      </c>
-      <c r="I5" s="97"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="93">
-        <v>3</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97">
-        <v>150</v>
-      </c>
-      <c r="I6" s="97"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="93">
-        <v>4</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="95" t="s">
+      <c r="E8" s="95"/>
+      <c r="F8" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97">
-        <v>120</v>
-      </c>
-      <c r="I7" s="97"/>
-    </row>
-    <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="93">
-        <v>5</v>
-      </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="98" t="s">
+      <c r="G8" s="84"/>
+      <c r="H8" s="85">
+        <v>250</v>
+      </c>
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="87">
+        <v>6</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="96" t="s">
+      <c r="E9" s="95"/>
+      <c r="F9" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97">
-        <v>250</v>
-      </c>
-      <c r="I8" s="97"/>
-    </row>
-    <row r="9" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="93">
-        <v>6</v>
-      </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="98" t="s">
+      <c r="G9" s="84"/>
+      <c r="H9" s="96">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="87">
+        <v>7</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="99">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="99"/>
-    </row>
-    <row r="10" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="93">
-        <v>7</v>
-      </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="99">
+      <c r="E10" s="95"/>
+      <c r="F10" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="96">
         <v>0.2</v>
       </c>
-      <c r="I10" s="99"/>
+      <c r="I10" s="96"/>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" s="90"/>
       <c r="D11" s="90"/>
@@ -19883,169 +19975,213 @@
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="91"/>
-      <c r="I11" s="88"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="88"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="50"/>
     </row>
     <row r="13" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="51">
+        <v>1</v>
+      </c>
+      <c r="C15" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="88"/>
-    </row>
-    <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="101" t="s">
+      <c r="D15" s="88"/>
+      <c r="E15" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="88"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="51">
+        <v>2</v>
+      </c>
+      <c r="C16" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="88"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="102">
-        <v>1</v>
-      </c>
-      <c r="C15" s="94" t="s">
+      <c r="D16" s="83"/>
+      <c r="E16" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="83"/>
+      <c r="G16" s="86">
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="86"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="51">
+        <v>3</v>
+      </c>
+      <c r="C17" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="88"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="102">
-        <v>2</v>
-      </c>
-      <c r="C16" s="95" t="s">
+      <c r="D17" s="83"/>
+      <c r="E17" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="83"/>
+      <c r="G17" s="86">
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="86"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="51">
+        <v>4</v>
+      </c>
+      <c r="C18" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="103">
+      <c r="D18" s="83"/>
+      <c r="E18" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="83"/>
+      <c r="G18" s="86">
         <v>0.6</v>
       </c>
-      <c r="H16" s="103"/>
-      <c r="I16" s="88"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="102">
-        <v>3</v>
-      </c>
-      <c r="C17" s="95" t="s">
+      <c r="H18" s="86"/>
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="51">
+        <v>5</v>
+      </c>
+      <c r="C19" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="103">
+      <c r="D19" s="83"/>
+      <c r="E19" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="83"/>
+      <c r="G19" s="86">
         <v>0.6</v>
       </c>
-      <c r="H17" s="103"/>
-      <c r="I17" s="88"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="102">
-        <v>4</v>
-      </c>
-      <c r="C18" s="95" t="s">
+      <c r="H19" s="86"/>
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="51">
+        <v>6</v>
+      </c>
+      <c r="C20" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="103">
+      <c r="D20" s="83"/>
+      <c r="E20" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="83"/>
+      <c r="G20" s="86">
         <v>0.6</v>
       </c>
-      <c r="H18" s="103"/>
-      <c r="I18" s="88"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="102">
-        <v>5</v>
-      </c>
-      <c r="C19" s="95" t="s">
+      <c r="H20" s="86"/>
+      <c r="I20" s="50"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="51">
+        <v>7</v>
+      </c>
+      <c r="C21" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="95"/>
-      <c r="G19" s="103">
+      <c r="D21" s="83"/>
+      <c r="E21" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="83"/>
+      <c r="G21" s="86">
         <v>0.6</v>
       </c>
-      <c r="H19" s="103"/>
-      <c r="I19" s="88"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="102">
-        <v>6</v>
-      </c>
-      <c r="C20" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="103">
-        <v>0.6</v>
-      </c>
-      <c r="H20" s="103"/>
-      <c r="I20" s="88"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="102">
-        <v>7</v>
-      </c>
-      <c r="C21" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="95"/>
-      <c r="G21" s="103">
-        <v>0.6</v>
-      </c>
-      <c r="H21" s="103"/>
-      <c r="I21" s="88"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -20062,50 +20198,6 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
